--- a/PowerBI/07_power_bi_ghibli/data/studio_ghibli_02_2025.xlsx
+++ b/PowerBI/07_power_bi_ghibli/data/studio_ghibli_02_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Family\Documents\GitHub\projects\draft\ghibli\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Family\Documents\GitHub\projects\PowerBI\07_power_bi_ghibli\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E22833-C3D8-4277-B6D5-FB68898B9DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1969C9-86BC-4876-A43A-A53D28D972AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="984" windowWidth="17280" windowHeight="11040" activeTab="1" xr2:uid="{3597ADAE-759D-4463-8575-2B0FC732B558}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3597ADAE-759D-4463-8575-2B0FC732B558}"/>
   </bookViews>
   <sheets>
     <sheet name="links" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BB2142E-59C7-4AC1-B647-D0D95623080A}" name="StuGhib" displayName="StuGhib" ref="A1:V26" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:V26" xr:uid="{6BB2142E-59C7-4AC1-B647-D0D95623080A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V26">
-    <sortCondition ref="A1:A26"/>
+    <sortCondition ref="F1:F26"/>
   </sortState>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{13ED1615-A566-40B1-A1E6-53ABEBBC5C60}" uniqueName="1" name="id" queryTableFieldId="1"/>
@@ -1032,7 +1032,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,62 +1198,62 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D3" s="3">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E3" s="3">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9">
-        <v>500000000</v>
+        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>474228999.99999994</v>
       </c>
       <c r="G3" s="13">
-        <v>168.35</v>
+        <v>128.16999999999999</v>
       </c>
       <c r="H3" s="12">
-        <f>StuGhib[[#This Row],[budget_yen]]/StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2970002.9700029702</v>
+        <v>3700000</v>
       </c>
       <c r="I3" s="7">
-        <v>24</v>
-      </c>
-      <c r="J3" s="8">
-        <v>157000000</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="9">
+        <v>836476</v>
       </c>
       <c r="K3" s="5">
-        <v>31626</v>
+        <v>32249</v>
       </c>
       <c r="L3" s="5">
-        <v>33438</v>
+        <v>32715</v>
       </c>
       <c r="M3" s="2">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>77</v>
@@ -1267,19 +1267,19 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="D4" s="3">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3">
         <v>94</v>
-      </c>
-      <c r="E4" s="3">
-        <v>100</v>
       </c>
       <c r="F4" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
@@ -1292,34 +1292,34 @@
         <v>3700000</v>
       </c>
       <c r="I4" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
-        <v>836476</v>
+        <v>41000000</v>
       </c>
       <c r="K4" s="5">
         <v>32249</v>
       </c>
       <c r="L4" s="5">
-        <v>32715</v>
+        <v>33067</v>
       </c>
       <c r="M4" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>77</v>
@@ -1336,44 +1336,44 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5" s="9">
-        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>474228999.99999994</v>
+        <v>500000000</v>
       </c>
       <c r="G5" s="13">
-        <v>128.16999999999999</v>
+        <v>168.35</v>
       </c>
       <c r="H5" s="12">
-        <v>3700000</v>
+        <f>StuGhib[[#This Row],[budget_yen]]/StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>2970002.9700029702</v>
       </c>
       <c r="I5" s="7">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9">
-        <v>41000000</v>
+        <v>24</v>
+      </c>
+      <c r="J5" s="8">
+        <v>157000000</v>
       </c>
       <c r="K5" s="5">
-        <v>32249</v>
+        <v>31626</v>
       </c>
       <c r="L5" s="5">
-        <v>33067</v>
+        <v>33438</v>
       </c>
       <c r="M5" s="2">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>9</v>
@@ -1382,16 +1382,16 @@
         <v>9</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>77</v>
@@ -1405,59 +1405,61 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>7.8</v>
       </c>
       <c r="D6" s="3">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E6" s="3">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="9">
-        <v>800000000</v>
+        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>638928000</v>
       </c>
       <c r="G6" s="13">
-        <v>138.07</v>
+        <v>93.96</v>
       </c>
       <c r="H6" s="12">
-        <f>StuGhib[[#This Row],[budget_yen]]/StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>5794162.3814007388</v>
+        <f>6.8*1000000</f>
+        <v>6800000</v>
       </c>
       <c r="I6" s="7">
         <v>24</v>
       </c>
       <c r="J6" s="9">
-        <v>10403278</v>
+        <f>3.15*1000000000/StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>33524904.214559387</v>
       </c>
       <c r="K6" s="5">
-        <v>32718</v>
+        <v>34895</v>
       </c>
       <c r="L6" s="5">
-        <v>33227</v>
+        <v>35391</v>
       </c>
       <c r="M6" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>77</v>
@@ -1474,61 +1476,59 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D7" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E7" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="9">
-        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>1318982000</v>
+        <v>800000000</v>
       </c>
       <c r="G7" s="13">
-        <v>134.59</v>
+        <v>138.07</v>
       </c>
       <c r="H7" s="12">
-        <f>9.8*1000000</f>
-        <v>9800000</v>
+        <f>StuGhib[[#This Row],[budget_yen]]/StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>5794162.3814007388</v>
       </c>
       <c r="I7" s="7">
         <v>24</v>
       </c>
       <c r="J7" s="9">
-        <f>3.18*1000000000/StuGhib[[#This Row],[avg_exchange rate]]+525958</f>
-        <v>24153270.578943457</v>
+        <v>10403278</v>
       </c>
       <c r="K7" s="5">
-        <v>33439</v>
+        <v>32718</v>
       </c>
       <c r="L7" s="5">
-        <v>42426</v>
+        <v>33227</v>
       </c>
       <c r="M7" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>77</v>
@@ -1614,58 +1614,59 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="D9" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3">
-        <v>89</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="F9" s="9">
+        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>1194862000</v>
       </c>
       <c r="G9" s="13">
-        <v>111.08</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>77</v>
+        <v>105.74</v>
+      </c>
+      <c r="H9" s="9">
+        <v>11300000</v>
       </c>
       <c r="I9" s="7">
-        <v>24</v>
-      </c>
-      <c r="J9" s="9">
-        <v>88428</v>
+        <v>36</v>
+      </c>
+      <c r="J9" s="15">
+        <v>35012681</v>
       </c>
       <c r="K9" s="5">
-        <v>34094</v>
+        <v>41839</v>
       </c>
       <c r="L9" s="5">
-        <v>34528</v>
+        <v>42146</v>
       </c>
       <c r="M9" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>77</v>
@@ -1682,60 +1683,59 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="D10" s="3">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F10" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>1226160000</v>
+        <v>1195590000</v>
       </c>
       <c r="G10" s="13">
-        <v>102.18</v>
-      </c>
-      <c r="H10" s="12">
-        <v>12000000</v>
+        <v>108.69</v>
+      </c>
+      <c r="H10" s="9">
+        <v>11000000</v>
       </c>
       <c r="I10" s="7">
-        <v>36</v>
-      </c>
-      <c r="J10" s="9">
-        <f>4.47*1000000000/StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>43746330.005871989</v>
+        <v>120</v>
+      </c>
+      <c r="J10" s="15">
+        <v>6613503</v>
       </c>
       <c r="K10" s="5">
-        <v>34531</v>
+        <v>42508</v>
       </c>
       <c r="L10" s="5">
-        <v>35048</v>
+        <v>42755</v>
       </c>
       <c r="M10" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>77</v>
@@ -1752,61 +1752,60 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="D11" s="3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F11" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>638928000</v>
+        <v>1226160000</v>
       </c>
       <c r="G11" s="13">
-        <v>93.96</v>
+        <v>102.18</v>
       </c>
       <c r="H11" s="12">
-        <f>6.8*1000000</f>
-        <v>6800000</v>
+        <v>12000000</v>
       </c>
       <c r="I11" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J11" s="9">
-        <f>3.15*1000000000/StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>33524904.214559387</v>
+        <f>4.47*1000000000/StuGhib[[#This Row],[avg_exchange rate]]</f>
+        <v>43746330.005871989</v>
       </c>
       <c r="K11" s="5">
-        <v>34895</v>
+        <v>34531</v>
       </c>
       <c r="L11" s="5">
-        <v>35391</v>
+        <v>35048</v>
       </c>
       <c r="M11" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>77</v>
@@ -1823,71 +1822,73 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
-        <v>8.3000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="D12" s="3">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F12" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2421200000</v>
+        <v>1318982000</v>
       </c>
       <c r="G12" s="13">
-        <v>121.06</v>
+        <v>134.59</v>
       </c>
       <c r="H12" s="12">
-        <v>20000000</v>
+        <f>9.8*1000000</f>
+        <v>9800000</v>
       </c>
       <c r="I12" s="7">
         <v>24</v>
       </c>
       <c r="J12" s="9">
-        <v>170515868</v>
+        <f>3.18*1000000000/StuGhib[[#This Row],[avg_exchange rate]]+525958</f>
+        <v>24153270.578943457</v>
       </c>
       <c r="K12" s="5">
-        <v>35623</v>
+        <v>33439</v>
       </c>
       <c r="L12" s="5">
-        <v>36462</v>
+        <v>42426</v>
       </c>
       <c r="M12" s="2">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1962,62 +1963,62 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="D14" s="3">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2334144000</v>
+        <v>2018940000</v>
       </c>
       <c r="G14" s="13">
-        <v>121.57</v>
-      </c>
-      <c r="H14" s="12">
-        <v>19200000</v>
+        <v>87.78</v>
+      </c>
+      <c r="H14" s="9">
+        <v>23000000</v>
       </c>
       <c r="I14" s="7">
         <v>24</v>
       </c>
-      <c r="J14" s="9">
-        <v>358664405</v>
+      <c r="J14" s="15">
+        <v>149692197</v>
       </c>
       <c r="K14" s="5">
-        <v>37092</v>
+        <v>40376</v>
       </c>
       <c r="L14" s="5">
-        <v>37519</v>
+        <v>40956</v>
       </c>
       <c r="M14" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>77</v>
@@ -2031,59 +2032,59 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="3">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="D15" s="3">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2504400000</v>
+        <v>2209890000</v>
       </c>
       <c r="G15" s="13">
-        <v>125.22</v>
-      </c>
-      <c r="H15" s="12">
-        <v>20000000</v>
+        <v>116.31</v>
+      </c>
+      <c r="H15" s="9">
+        <v>19000000</v>
       </c>
       <c r="I15" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="J15" s="9">
-        <v>54664109</v>
+        <v>68673762</v>
       </c>
       <c r="K15" s="5">
-        <v>37456</v>
+        <v>38927</v>
       </c>
       <c r="L15" s="5">
-        <v>38546</v>
+        <v>40403</v>
       </c>
       <c r="M15" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>77</v>
@@ -2100,62 +2101,62 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="3">
-        <v>8.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="D16" s="3">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2595600000</v>
+        <v>2231600000</v>
       </c>
       <c r="G16" s="13">
-        <v>108.15</v>
+        <v>79.7</v>
       </c>
       <c r="H16" s="9">
-        <v>24000000</v>
+        <v>28000000</v>
       </c>
       <c r="I16" s="7">
-        <v>24</v>
-      </c>
-      <c r="J16" s="9">
-        <v>240898313</v>
+        <v>36</v>
+      </c>
+      <c r="J16" s="15">
+        <v>61485364</v>
       </c>
       <c r="K16" s="5">
-        <v>38311</v>
+        <v>40740</v>
       </c>
       <c r="L16" s="5">
-        <v>38520</v>
+        <v>41348</v>
       </c>
       <c r="M16" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>77</v>
@@ -2169,62 +2170,62 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="D17" s="3">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E17" s="3">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F17" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2209890000</v>
+        <v>2334144000</v>
       </c>
       <c r="G17" s="13">
-        <v>116.31</v>
-      </c>
-      <c r="H17" s="9">
-        <v>19000000</v>
+        <v>121.57</v>
+      </c>
+      <c r="H17" s="12">
+        <v>19200000</v>
       </c>
       <c r="I17" s="7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J17" s="9">
-        <v>68673762</v>
+        <v>358664405</v>
       </c>
       <c r="K17" s="5">
-        <v>38927</v>
+        <v>37092</v>
       </c>
       <c r="L17" s="5">
-        <v>40403</v>
+        <v>37519</v>
       </c>
       <c r="M17" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>77</v>
@@ -2238,44 +2239,44 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
-        <v>7.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D18" s="3">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>3515260000</v>
+        <v>2421200000</v>
       </c>
       <c r="G18" s="13">
-        <v>103.39</v>
-      </c>
-      <c r="H18" s="9">
-        <v>34000000</v>
+        <v>121.06</v>
+      </c>
+      <c r="H18" s="12">
+        <v>20000000</v>
       </c>
       <c r="I18" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J18" s="9">
-        <v>206072776</v>
+        <v>170515868</v>
       </c>
       <c r="K18" s="5">
-        <v>39648</v>
+        <v>35623</v>
       </c>
       <c r="L18" s="5">
-        <v>40039</v>
+        <v>36462</v>
       </c>
       <c r="M18" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>9</v>
@@ -2289,77 +2290,77 @@
       <c r="Q18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>13</v>
+      <c r="R18" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="3">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="D19" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F19" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2018940000</v>
+        <v>2504400000</v>
       </c>
       <c r="G19" s="13">
-        <v>87.78</v>
-      </c>
-      <c r="H19" s="9">
-        <v>23000000</v>
+        <v>125.22</v>
+      </c>
+      <c r="H19" s="12">
+        <v>20000000</v>
       </c>
       <c r="I19" s="7">
-        <v>24</v>
-      </c>
-      <c r="J19" s="15">
-        <v>149692197</v>
+        <v>12</v>
+      </c>
+      <c r="J19" s="9">
+        <v>54664109</v>
       </c>
       <c r="K19" s="5">
-        <v>40376</v>
+        <v>37456</v>
       </c>
       <c r="L19" s="5">
-        <v>40956</v>
+        <v>38546</v>
       </c>
       <c r="M19" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>77</v>
@@ -2376,62 +2377,62 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="3">
-        <v>7.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D20" s="3">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>2231600000</v>
+        <v>2595600000</v>
       </c>
       <c r="G20" s="13">
-        <v>79.7</v>
+        <v>108.15</v>
       </c>
       <c r="H20" s="9">
-        <v>28000000</v>
+        <v>24000000</v>
       </c>
       <c r="I20" s="7">
-        <v>36</v>
-      </c>
-      <c r="J20" s="15">
-        <v>61485364</v>
+        <v>24</v>
+      </c>
+      <c r="J20" s="9">
+        <v>240898313</v>
       </c>
       <c r="K20" s="5">
-        <v>40740</v>
+        <v>38311</v>
       </c>
       <c r="L20" s="5">
-        <v>41348</v>
+        <v>38520</v>
       </c>
       <c r="M20" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="O20" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="P20" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>86</v>
+        <v>7</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>77</v>
@@ -2514,60 +2515,59 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="D22" s="3">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F22" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>5202080000</v>
+        <v>3515260000</v>
       </c>
       <c r="G22" s="13">
-        <v>97.6</v>
+        <v>103.39</v>
       </c>
       <c r="H22" s="9">
-        <v>53300000</v>
+        <v>34000000</v>
       </c>
       <c r="I22" s="7">
-        <f>8*12</f>
-        <v>96</v>
-      </c>
-      <c r="J22" s="15">
-        <v>27000000</v>
+        <v>6</v>
+      </c>
+      <c r="J22" s="9">
+        <v>206072776</v>
       </c>
       <c r="K22" s="5">
-        <v>41601</v>
+        <v>39648</v>
       </c>
       <c r="L22" s="5">
-        <v>41929</v>
+        <v>40039</v>
       </c>
       <c r="M22" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R22" s="16" t="s">
-        <v>23</v>
+      <c r="R22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>77</v>
@@ -2584,59 +2584,60 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F23" s="9">
-        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>1194862000</v>
+        <v>5150000000</v>
       </c>
       <c r="G23" s="13">
-        <v>105.74</v>
+        <v>97.6</v>
       </c>
       <c r="H23" s="9">
-        <v>11300000</v>
+        <f>StuGhib[[#This Row],[budget_yen]]/G23</f>
+        <v>52766393.442622952</v>
       </c>
       <c r="I23" s="7">
-        <v>36</v>
+        <f>8*12</f>
+        <v>96</v>
       </c>
       <c r="J23" s="15">
-        <v>35012681</v>
+        <v>27000000</v>
       </c>
       <c r="K23" s="5">
-        <v>41839</v>
+        <v>41601</v>
       </c>
       <c r="L23" s="5">
-        <v>42146</v>
+        <v>41929</v>
       </c>
       <c r="M23" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>77</v>
@@ -2653,59 +2654,59 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D24" s="3">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E24" s="3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F24" s="9">
         <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>1195590000</v>
+        <v>7500908999.999999</v>
       </c>
       <c r="G24" s="13">
-        <v>108.69</v>
+        <v>140.72999999999999</v>
       </c>
       <c r="H24" s="9">
-        <v>11000000</v>
+        <v>53300000</v>
       </c>
       <c r="I24" s="7">
-        <v>120</v>
-      </c>
-      <c r="J24" s="15">
-        <v>6613503</v>
+        <v>60</v>
+      </c>
+      <c r="J24" s="9">
+        <v>293000000</v>
       </c>
       <c r="K24" s="5">
-        <v>42508</v>
+        <v>45121</v>
       </c>
       <c r="L24" s="5">
-        <v>42755</v>
+        <v>45268</v>
       </c>
       <c r="M24" s="2">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>77</v>
@@ -2722,58 +2723,58 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>73</v>
+      </c>
+      <c r="E25" s="3">
+        <v>89</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="13">
+        <v>111.08</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="D25" s="3">
-        <v>46</v>
-      </c>
-      <c r="E25" s="3">
-        <v>28</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="13">
-        <v>106.76</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="7">
-        <v>36</v>
-      </c>
       <c r="J25" s="9">
-        <v>842744</v>
+        <v>88428</v>
       </c>
       <c r="K25" s="5">
-        <v>44195</v>
+        <v>34094</v>
       </c>
       <c r="L25" s="5">
-        <v>44230</v>
+        <v>34528</v>
       </c>
       <c r="M25" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="6" t="s">
-        <v>64</v>
+      <c r="Q25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>77</v>
@@ -2790,59 +2791,58 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="D26" s="3">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3">
-        <v>96</v>
-      </c>
-      <c r="F26" s="9">
-        <f>StuGhib[[#This Row],[budget_usd]]*StuGhib[[#This Row],[avg_exchange rate]]</f>
-        <v>7500908999.999999</v>
+        <v>28</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="G26" s="13">
-        <v>140.72999999999999</v>
-      </c>
-      <c r="H26" s="9">
-        <v>53300000</v>
+        <v>106.76</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="I26" s="7">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J26" s="9">
-        <v>293000000</v>
+        <v>842744</v>
       </c>
       <c r="K26" s="5">
-        <v>45121</v>
+        <v>44195</v>
       </c>
       <c r="L26" s="5">
-        <v>45268</v>
+        <v>44230</v>
       </c>
       <c r="M26" s="2">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>20</v>
+      <c r="Q26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>77</v>
@@ -2860,6 +2860,9 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3:H26" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
